--- a/data/trans_bre/P16A09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.5236718595827254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.081004343792591</v>
+        <v>2.08100434379259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.455851354055174</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.297462924120429</v>
+        <v>-1.22099657285182</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.368798258886506</v>
+        <v>-3.522282559001635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6947312493822739</v>
+        <v>-0.6442171384901488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.528663606208291</v>
+        <v>0.7175176622624616</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4483251165228927</v>
+        <v>-0.4351710057181905</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8990571132142997</v>
+        <v>-0.8948679366026645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8436354536903228</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1308030328054837</v>
+        <v>0.2996426237845626</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.892040006426451</v>
+        <v>4.25376032608976</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.044957440034938</v>
+        <v>0.8499302610070756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.040392752813914</v>
+        <v>2.085827554914709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.774693446282398</v>
+        <v>3.80026188639513</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.994169174194581</v>
+        <v>2.790841467995154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.304009595048734</v>
-      </c>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>0.9469065214058051</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.80749512065948</v>
+      </c>
       <c r="J6" s="6" t="n">
-        <v>8.283575996853546</v>
+        <v>8.807386952264984</v>
       </c>
     </row>
     <row r="7">
@@ -760,26 +762,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7065556140102108</v>
+        <v>-0.6556709332753237</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.156756591616769</v>
+        <v>-1.079020213700591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3132351572868007</v>
+        <v>0.308907669101034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6689712847012564</v>
+        <v>0.8774715164313949</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5091166877835116</v>
+        <v>-0.6036068145530379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5070789623608505</v>
+        <v>-0.499606165687734</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>0.1673448412536693</v>
+        <v>0.2257362576420788</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +792,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.498745414041748</v>
+        <v>3.665914954728918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.064708734523901</v>
+        <v>3.177492331543718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.99665309156486</v>
+        <v>2.764278034397967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.407668055134787</v>
+        <v>4.458778329050298</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.965044923627586</v>
+        <v>7.33170792869635</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.392007063692468</v>
+        <v>3.984989891837278</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>6.601122462682167</v>
+        <v>5.990857042336053</v>
       </c>
     </row>
     <row r="10">
@@ -845,7 +847,7 @@
         <v>3.522003549325222</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.610117779031042</v>
+        <v>2.610117779031043</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4104099609456308</v>
+        <v>0.244193576347009</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8264191127032152</v>
+        <v>-0.6272268461580206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2048187599214784</v>
+        <v>0.3443274639597769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.447963361545434</v>
+        <v>2.656953117593888</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01670016404909934</v>
+        <v>-0.008667336870387801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3754880303014391</v>
+        <v>-0.3290254229973926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2767556033032994</v>
+        <v>-0.4991423463079016</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6592261189549375</v>
+        <v>0.7367509439081181</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.074479048370067</v>
+        <v>9.504539788256285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.322643509198996</v>
+        <v>5.617915282298001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.159897750241713</v>
+        <v>8.124934326373651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.59419129063043</v>
+        <v>11.46365500367901</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.521531385985384</v>
+        <v>4.996082447812603</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.815847696693657</v>
+        <v>3.782944504322333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>27.17447682736968</v>
+        <v>21.79078676783442</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>7.751323465000472</v>
+        <v>7.01376945460287</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +935,7 @@
         <v>-0.2341830399487304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8345801879200664</v>
+        <v>0.8345801879200656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.08386321647111031</v>
@@ -945,7 +947,7 @@
         <v>-0.1127536251679579</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3242489297870386</v>
+        <v>0.3242489297870383</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.102175334033834</v>
+        <v>-2.096141206856216</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8285188743592773</v>
+        <v>-0.7461404001591594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.536069508858154</v>
+        <v>-1.447711216287521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.4962325466159361</v>
+        <v>-0.4190019072978072</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4243916896986195</v>
+        <v>-0.4374011368300488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3241223567051146</v>
+        <v>-0.2796897734524272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5740750040927212</v>
+        <v>-0.574975947715254</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.171235488438416</v>
+        <v>-0.1356324353481934</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.640672084815777</v>
+        <v>1.582485326165432</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.162130215107522</v>
+        <v>2.372907997198527</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.027656444629901</v>
+        <v>1.029640341253218</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.12822721250319</v>
+        <v>2.211406159750356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4677817187432985</v>
+        <v>0.4469486251320062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.213864391197482</v>
+        <v>1.420053230950712</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6551943018718868</v>
+        <v>0.7396130835836656</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.063291537082468</v>
+        <v>1.219936254214644</v>
       </c>
     </row>
     <row r="16">
@@ -1056,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2745647867450502</v>
+        <v>-0.323355797788493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.251201413649266</v>
+        <v>2.141582478190818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.354346428415361</v>
+        <v>1.759496238809218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.180033982340701</v>
+        <v>3.233431932829185</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1091746659232446</v>
+        <v>-0.1244353841868791</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6012569899690139</v>
+        <v>0.5287559539909807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.401038321956648</v>
+        <v>0.4845375078218066</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.9847584998559914</v>
+        <v>0.9749850583232431</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.777468644322745</v>
+        <v>4.642036554870839</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.013657958214087</v>
+        <v>6.809751026944362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.771558170268676</v>
+        <v>6.154750734657208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.764020234719292</v>
+        <v>6.618157731511706</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.950634839505181</v>
+        <v>2.713069269205824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.482920245071708</v>
+        <v>5.032855913728321</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.782928419241643</v>
+        <v>3.695597486021573</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.759645562142967</v>
+        <v>4.692560726969643</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1135,7 @@
         <v>5.50782311849349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.499045776552959</v>
+        <v>7.499045776552957</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>21.44915894626451</v>
@@ -1162,16 +1164,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.800914487658739</v>
+        <v>4.916410582289561</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.925218678292642</v>
+        <v>7.966891651821688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.105959789482243</v>
+        <v>4.339915428722263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.179585806143653</v>
+        <v>6.191772781587367</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1186,16 +1188,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.950028149617154</v>
+        <v>8.136685436040684</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.7145309616244</v>
+        <v>11.66029982475214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.993190214294217</v>
+        <v>7.2337803408469</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.096884496402948</v>
+        <v>8.966715408097498</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1246,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.290821605841039</v>
+        <v>1.236176001759044</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.873003446997858</v>
+        <v>2.804754657549298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.6917132855502</v>
+        <v>1.641759591814254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.89389351292671</v>
+        <v>2.901458430135553</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.388069756489591</v>
+        <v>0.3608444676505266</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.148725098165686</v>
+        <v>1.150502295991329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.029009442682392</v>
+        <v>0.9780321684674022</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.332374157516401</v>
+        <v>1.29071901346689</v>
       </c>
     </row>
     <row r="24">
@@ -1278,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.246098894349028</v>
+        <v>3.321205827186186</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.816089792368807</v>
+        <v>4.757104126240788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.235251348397541</v>
+        <v>3.204130693030118</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.378588601193602</v>
+        <v>4.470551463021843</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.27969226120354</v>
+        <v>1.304329626087298</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.807326761830617</v>
+        <v>2.846814596005505</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.968997567828775</v>
+        <v>2.916564075148625</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.917807850494555</v>
+        <v>2.871628812548495</v>
       </c>
     </row>
     <row r="25">
